--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/ColumnIndex导入测试.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/ColumnIndex导入测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Person\HueiFeng\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Nongzhsh\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAD4100-E34C-4DEE-9A22-A70B289F125F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF973F65-CE4A-44C1-9E4E-57D3B1EC7A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2715" windowWidth="21600" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>年龄（Age）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,13 +500,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -510,7 +515,9 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
@@ -519,6 +526,9 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>18787000001</v>
+      </c>
       <c r="C2" s="1">
         <v>11</v>
       </c>
@@ -527,6 +537,9 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>18787000002</v>
+      </c>
       <c r="C3" s="1">
         <v>12</v>
       </c>
@@ -535,6 +548,9 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>18787000003</v>
+      </c>
       <c r="C4" s="1">
         <v>13</v>
       </c>
@@ -543,6 +559,9 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>18787000004</v>
+      </c>
       <c r="C5" s="1">
         <v>13</v>
       </c>
@@ -551,6 +570,9 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>18787000005</v>
+      </c>
       <c r="C6" s="1">
         <v>13</v>
       </c>
@@ -559,6 +581,9 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>18787000006</v>
+      </c>
       <c r="C7" s="1">
         <v>15</v>
       </c>
@@ -567,50 +592,80 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>18787000007</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>18787000008</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>18787000009</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>18787000010</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1">
+        <v>18787000011</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="1">
+        <v>18787000012</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>18787000013</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>18787000014</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1">
+        <v>18787000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>18787000016</v>
       </c>
     </row>
   </sheetData>

--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/ColumnIndex导入测试.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/ColumnIndex导入测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Nongzhsh\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raymond\repo\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF973F65-CE4A-44C1-9E4E-57D3B1EC7A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F8A7A4-4BE0-49A7-9D48-529B122E28D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>姓名</t>
   </si>
@@ -78,6 +78,53 @@
   </si>
   <si>
     <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列索引测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnIndexZeroTest2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -119,6 +166,23 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -179,6 +243,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,21 +567,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5">
+    <row r="1" spans="1:5" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,8 +591,14 @@
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -532,8 +608,14 @@
       <c r="C2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -543,8 +625,14 @@
       <c r="C3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -554,8 +642,14 @@
       <c r="C4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -566,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -577,7 +671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -588,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -596,7 +690,7 @@
         <v>18787000007</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -604,7 +698,7 @@
         <v>18787000008</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -612,7 +706,7 @@
         <v>18787000009</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -620,7 +714,7 @@
         <v>18787000010</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -628,7 +722,7 @@
         <v>18787000011</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -636,7 +730,7 @@
         <v>18787000012</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -644,7 +738,7 @@
         <v>18787000013</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -652,7 +746,7 @@
         <v>18787000014</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -660,7 +754,7 @@
         <v>18787000015</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
